--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C1B5FD-CA47-4D1E-898A-AF6736C395FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excel关联表" sheetId="1" r:id="rId1"/>
@@ -19,8 +20,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="o_excel1" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="o_excel1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="F:\编辑器制作资源\Editor20190622\project\dreamland\excel\export\o_excel.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>默认值sheet名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -87,14 +84,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bool</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -103,10 +92,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>str</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,13 +158,33 @@
   </si>
   <si>
     <t>作弊指令表.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_Armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_excel/Armor.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -292,11 +297,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="o_excel_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="o_excel_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -371,6 +376,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -406,6 +428,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -581,66 +620,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -652,62 +691,62 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>3</v>
+        <v>34</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>15</v>
-      </c>
       <c r="J3" s="3" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
         <v>28</v>
       </c>
-      <c r="C4" t="s">
-        <v>32</v>
-      </c>
       <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" t="s">
         <v>20</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -716,33 +755,33 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
         <v>29</v>
       </c>
-      <c r="C5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" t="s">
-        <v>33</v>
-      </c>
       <c r="E5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -751,10 +790,33 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="K5" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="H8" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -765,34 +827,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13C1B5FD-CA47-4D1E-898A-AF6736C395FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FA115D-F078-4C90-A91D-F630F48822DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,15 @@
     <definedName name="o_excel" localSheetId="0">excel关联表!#REF!</definedName>
     <definedName name="o_excel_1" localSheetId="0">excel关联表!$A$4:$G$4</definedName>
   </definedNames>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +186,18 @@
   </si>
   <si>
     <t>data_excel/Armor.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_excel/Skills.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_Skills</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,10 +641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -816,6 +836,29 @@
         <v>0</v>
       </c>
       <c r="I8" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>101</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H9" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" t="b">
         <v>0</v>
       </c>
     </row>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41FA115D-F078-4C90-A91D-F630F48822DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="excel关联表" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
     <definedName name="o_excel" localSheetId="0">excel关联表!#REF!</definedName>
     <definedName name="o_excel_1" localSheetId="0">excel关联表!$A$4:$G$4</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -28,8 +27,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="o_excel1" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="o_excel1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="F:\编辑器制作资源\Editor20190622\project\dreamland\excel\export\o_excel.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -46,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -198,13 +197,29 @@
   </si>
   <si>
     <t>o_Skills</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Weapons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_excel/Weapons.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sheet1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_Weapons</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,7 +332,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="o_excel_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="o_excel_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -363,7 +378,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -396,26 +411,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -448,23 +446,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -640,26 +621,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -694,7 +675,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -711,7 +692,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -746,7 +727,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -781,7 +762,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -816,7 +797,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>100</v>
       </c>
@@ -839,7 +820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>101</v>
       </c>
@@ -859,6 +840,29 @@
         <v>0</v>
       </c>
       <c r="I9" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>102</v>
+      </c>
+      <c r="B10" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" t="s">
+        <v>41</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H10" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -870,32 +874,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>23</v>
       </c>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86AC58E-663F-4D90-B707-1DF5F1670265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="11760"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excel关联表" sheetId="1" r:id="rId1"/>
@@ -15,20 +16,12 @@
     <definedName name="o_excel_1" localSheetId="0">excel关联表!$A$4:$G$4</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="o_excel1" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="o_excel1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="F:\编辑器制作资源\Editor20190622\project\dreamland\excel\export\o_excel.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -219,7 +212,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -332,7 +325,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="o_excel_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="o_excel_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,7 +371,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -411,9 +404,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -446,6 +456,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -621,26 +648,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.46484375" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -675,7 +702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -692,7 +719,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -727,7 +754,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
@@ -762,7 +789,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
@@ -797,7 +824,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>100</v>
       </c>
@@ -817,10 +844,10 @@
         <v>0</v>
       </c>
       <c r="I8" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>101</v>
       </c>
@@ -840,10 +867,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>102</v>
       </c>
@@ -863,7 +890,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -874,32 +901,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>23</v>
       </c>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86AC58E-663F-4D90-B707-1DF5F1670265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E287CE-9454-4C9F-A331-8BD01A37FF94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -113,10 +113,6 @@
     <t>o_excel</t>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>excel关联表_辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -142,10 +138,6 @@
   </si>
   <si>
     <t>o_cheat_system_item</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -652,7 +644,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -724,22 +716,22 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>11</v>
@@ -748,10 +740,10 @@
         <v>12</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
@@ -759,10 +751,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -771,7 +763,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>18</v>
@@ -781,12 +773,6 @@
       </c>
       <c r="I4" t="b">
         <v>1</v>
-      </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
@@ -794,34 +780,22 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
       <c r="I5" t="b">
         <v>1</v>
-      </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
@@ -829,16 +803,16 @@
         <v>100</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -852,16 +826,16 @@
         <v>101</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -875,16 +849,16 @@
         <v>102</v>
       </c>
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -915,7 +889,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -923,12 +897,12 @@
     </row>
     <row r="3" spans="1:1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86AC58E-663F-4D90-B707-1DF5F1670265}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="excel关联表" sheetId="1" r:id="rId1"/>
@@ -20,8 +19,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="o_excel1" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="o_excel1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="F:\编辑器制作资源\Editor20190622\project\dreamland\excel\export\o_excel.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,13 +205,24 @@
   </si>
   <si>
     <t>o_Weapons</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ArmType</t>
+  </si>
+  <si>
+    <t>data_excel/ArmType.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_ArmType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -325,7 +335,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="o_excel_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="o_excel_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -371,7 +381,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -404,26 +414,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -456,23 +449,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -648,26 +624,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.46484375" customWidth="1"/>
-    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.46484375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.59765625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.5" customWidth="1"/>
+    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +678,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -719,7 +695,7 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -754,7 +730,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>1</v>
       </c>
@@ -789,7 +765,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>2</v>
       </c>
@@ -824,7 +800,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>100</v>
       </c>
@@ -847,7 +823,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>101</v>
       </c>
@@ -870,7 +846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>102</v>
       </c>
@@ -890,6 +866,29 @@
         <v>0</v>
       </c>
       <c r="I10" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>103</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" t="s">
+        <v>41</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" t="b">
         <v>1</v>
       </c>
     </row>
@@ -901,32 +900,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.1328125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A4" t="s">
         <v>23</v>
       </c>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -628,7 +628,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -756,7 +756,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J4" t="s">
         <v>19</v>

--- a/excel/excel关联表.xlsx
+++ b/excel/excel关联表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22130"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3560ABC-BB75-4D56-9052-32155A9DAE9D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="20715" windowHeight="11760"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="excel关联表" sheetId="1" r:id="rId1"/>
@@ -19,8 +20,8 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="o_excel1" type="6" refreshedVersion="5" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
+  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="o_excel1" type="6" refreshedVersion="5" background="1" saveData="1">
     <textPr codePage="65001" sourceFile="F:\编辑器制作资源\Editor20190622\project\dreamland\excel\export\o_excel.csv" comma="1">
       <textFields count="7">
         <textField/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,10 +113,6 @@
     <t>o_excel</t>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>excel关联表_辅助</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -144,10 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>excel关联表.xlsx</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -216,13 +209,25 @@
   </si>
   <si>
     <t>o_ArmType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>o_WeaponClass</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>data_excel/WeaponClass.xlsx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WeaponClass</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -335,7 +340,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="o_excel_1" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="o_excel_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -381,7 +386,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -414,9 +419,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -449,6 +471,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -624,26 +663,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="44.5" customWidth="1"/>
-    <col min="4" max="4" width="12.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.625" style="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.46484375" customWidth="1"/>
+    <col min="4" max="4" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.46484375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.59765625" style="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -678,7 +717,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -695,27 +734,27 @@
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>11</v>
@@ -724,21 +763,21 @@
         <v>12</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
@@ -747,7 +786,7 @@
         <v>15</v>
       </c>
       <c r="F4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>18</v>
@@ -758,34 +797,22 @@
       <c r="I4" t="b">
         <v>0</v>
       </c>
-      <c r="J4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>27</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
-      </c>
-      <c r="F5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>26</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -793,28 +820,22 @@
       <c r="I5" t="b">
         <v>1</v>
       </c>
-      <c r="J5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>100</v>
       </c>
       <c r="B8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>33</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -823,21 +844,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>101</v>
       </c>
       <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>38</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -846,21 +867,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>102</v>
       </c>
       <c r="B10" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" t="s">
         <v>39</v>
       </c>
-      <c r="C10" t="s">
+      <c r="G10" s="7" t="s">
         <v>40</v>
-      </c>
-      <c r="D10" t="s">
-        <v>41</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>42</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
@@ -869,26 +890,49 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>103</v>
       </c>
       <c r="B11" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D11" t="s">
-        <v>41</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>45</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
       </c>
       <c r="I11" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>104</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" t="b">
         <v>1</v>
       </c>
     </row>
@@ -900,34 +944,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="32.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1" ht="13.9" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2"/>
-    </row>
-    <row r="3" spans="1:1" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
-        <v>23</v>
       </c>
     </row>
   </sheetData>
